--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -58317,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -58653,7 +58653,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58707,7 +58709,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58761,7 +58765,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58815,7 +58821,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58869,7 +58877,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1043"/>
+  <dimension ref="A1:R1044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58881,6 +58881,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>11200</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>11587</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>11190</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>11351.5</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>11351.5</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>75403</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1044"/>
+  <dimension ref="A1:R1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58421,7 +58421,7 @@
         <v>23</v>
       </c>
       <c r="O1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1035" t="n">
         <v>0</v>
@@ -58933,7 +58933,63 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>11446.25</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>11053.099609375</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>11375.75</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>11375.75</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>83288</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1045"/>
+  <dimension ref="A1:R1052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58989,7 +58989,387 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>11417.650390625</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>11535.900390625</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>10900</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>10973.25</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>10973.25</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>39323</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>11110.5</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>11225.0498046875</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>10927.25</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>11109.150390625</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>11109.150390625</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>53743</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>11132.099609375</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>11849</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>11047.2001953125</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>11605.349609375</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>11605.349609375</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>104175</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>11686.650390625</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>12218.75</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>11300</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>11414.900390625</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>11414.900390625</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>122031</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>11525.400390625</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>13058.75</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>11493</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>12630.9501953125</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>12630.9501953125</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>158604</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>12694</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>12925.25</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>12480</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>12581.0498046875</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>12581.0498046875</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>67432</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>12588</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>13249.9501953125</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>12204.0498046875</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>12911.599609375</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>12911.599609375</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>64510</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -59045,7 +59045,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59099,7 +59101,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59153,7 +59157,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59207,7 +59213,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59261,7 +59269,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59315,7 +59325,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59369,7 +59381,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1052"/>
+  <dimension ref="A1:R1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59385,6 +59385,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>13029.900390625</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>13542.400390625</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>12776.599609375</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>13012.150390625</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>13012.150390625</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>98895</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>13100</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>13700</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>13050</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>13393.4501953125</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>13393.4501953125</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>68644</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>13489.9501953125</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>14382</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>13405.2001953125</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>13959.5</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>13959.5</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>177657</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>14143.9501953125</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>14187.7998046875</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>13651</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>13750.25</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>13750.25</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>80964</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>13700</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>14108.349609375</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>14019.5498046875</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>14019.5498046875</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>68519</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1057"/>
+  <dimension ref="A1:R1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59437,7 +59437,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59491,7 +59493,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59537,7 +59541,7 @@
         <v>27</v>
       </c>
       <c r="O1055" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1055" t="n">
         <v>0</v>
@@ -59545,7 +59549,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59599,7 +59605,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59653,7 +59661,495 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>13900</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>14123.900390625</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>13700</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>13756.150390625</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>13756.150390625</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>40340</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>13756.2001953125</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>13960</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>13401</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>13488.9501953125</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>13488.9501953125</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>41865</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>13524.9501953125</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>13684.650390625</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>12767.25</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>12857.5</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>12857.5</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>76245</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>12857.5</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>13369.099609375</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>12600</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>12680.900390625</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>12680.900390625</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>48547</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>12860</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>12990</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>12150</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>12362.2001953125</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>12362.2001953125</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>48038</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>12251</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>12321.0498046875</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>11708.2998046875</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>12060.150390625</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>12060.150390625</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>76029</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>12201.0498046875</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>12650</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>11980</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>12055.5</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>12055.5</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>74129</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>12250</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>12400</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>11699.599609375</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>11828.5498046875</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>11828.5498046875</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>61546</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>11931.849609375</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>12145.0498046875</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>11077.5498046875</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>11190.349609375</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>11190.349609375</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>86552</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1066"/>
+  <dimension ref="A1:R1076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59717,7 +59717,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59771,7 +59773,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59825,7 +59829,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59879,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59933,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59987,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60041,7 +60053,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60095,7 +60109,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60149,7 +60165,549 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>11160</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>11620.099609375</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>10980.400390625</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>11268.349609375</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>11268.349609375</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>44190</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>11408.0498046875</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>11549.900390625</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>10915.849609375</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>11396.7998046875</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>11396.7998046875</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>54777</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>11454.0498046875</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>12202.7998046875</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>11410.099609375</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>12030.2998046875</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>12030.2998046875</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>74363</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>11988</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>12300</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>11525</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>11750.2998046875</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>11750.2998046875</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>84682</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>11770</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>11799.9501953125</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>11340.900390625</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>11547.599609375</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>11547.599609375</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>79745</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>11668.7998046875</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>11939.9501953125</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>11511.400390625</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>11898.0498046875</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>11898.0498046875</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>68224</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>11982.099609375</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>12049.900390625</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>11740.5</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>11872.2998046875</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>11872.2998046875</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>44806</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>11777.0498046875</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>11934.849609375</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>11510.2001953125</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>11607.099609375</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>11607.099609375</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>29788</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>11751.7001953125</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>12540.900390625</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>11707.599609375</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>12392.150390625</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>12392.150390625</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>98631</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>12392.099609375</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>12673.7001953125</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>11988.25</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>12039.5498046875</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>12039.5498046875</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>56042</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1076"/>
+  <dimension ref="A1:R1081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60221,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60275,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60329,7 +60333,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60383,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60437,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60491,7 +60501,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60545,7 +60557,9 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60599,7 +60613,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60653,7 +60669,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60707,7 +60725,279 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>11642.099609375</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>11986.150390625</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>11381</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>11589.25</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>11589.25</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>59470</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>11589.25</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>11980</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>10805.400390625</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>10910.9501953125</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>10910.9501953125</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>71665</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>11180.9501953125</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>11387.9501953125</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>10830</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>10940.2998046875</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>10940.2998046875</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>42396</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>10970</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>11250</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>10807.0498046875</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>11000.2001953125</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>11000.2001953125</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>43354</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>11339.9501953125</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>11339.9501953125</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>10900</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>11010.7998046875</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>11010.7998046875</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>30213</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1081"/>
+  <dimension ref="A1:R1085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60781,7 +60781,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60835,7 +60837,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60889,7 +60893,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60943,7 +60949,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -60997,7 +61005,225 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>11010.7998046875</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>11611.849609375</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>10804.9501953125</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>11514.7998046875</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>11510.75</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>45199</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>11575.400390625</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>11780</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>11374.7998046875</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>11370.7998046875</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>30750</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>11369.400390625</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>11474.9501953125</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>11010</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>11120.650390625</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>11120.650390625</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>14307</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>11150</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>11860</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>11145</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>11828.7001953125</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>11828.7001953125</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>35703</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1085"/>
+  <dimension ref="A1:R1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60717,7 +60717,7 @@
         <v>31</v>
       </c>
       <c r="O1076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1076" t="n">
         <v>0</v>
@@ -61061,7 +61061,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61115,7 +61117,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61169,7 +61173,9 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
@@ -61223,7 +61229,279 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>12099</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>12425</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>11883.150390625</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>12346.2001953125</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>12346.2001953125</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>12514.75</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>11950</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>12405.900390625</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>12405.900390625</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>48574</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>12486.5</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>12518.2001953125</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>12141.099609375</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>12414.25</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>12414.25</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>25598</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>12395.9501953125</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>12395.9501953125</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>11976</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>12049.9501953125</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>12049.9501953125</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>39026</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>12049.9501953125</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>12241.650390625</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>11860</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>12202.2001953125</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>12202.2001953125</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>21633</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1090"/>
+  <dimension ref="A1:R1095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61053,7 +61053,7 @@
         <v>33</v>
       </c>
       <c r="O1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1082" t="n">
         <v>0</v>
@@ -61285,7 +61285,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61339,7 +61341,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61393,7 +61397,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61447,7 +61453,9 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61501,7 +61509,279 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>12288</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>12296</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>11950.0498046875</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>12031.25</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>12031.25</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>21560</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>12055.7998046875</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>12227.9501953125</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>11986.7998046875</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>12176.150390625</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>12176.150390625</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>15535</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>12125.5498046875</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>12346.75</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>12025.7998046875</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>12194.0498046875</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>12194.0498046875</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>27729</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>12203</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>12258.0498046875</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>11740</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>11770</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>11770</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>23371</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>11770</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>12211.650390625</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>11640</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>12095.0498046875</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>12095.0498046875</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>40201</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1095"/>
+  <dimension ref="A1:R1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61389,7 +61389,7 @@
         <v>34</v>
       </c>
       <c r="O1088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1088" t="n">
         <v>0</v>
@@ -61565,7 +61565,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61619,7 +61621,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61673,7 +61677,9 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -61727,7 +61733,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61781,7 +61789,279 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>12120</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>12158.7001953125</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>11675</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>11879.7001953125</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>11879.7001953125</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>31777</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>11874</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>11970.650390625</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>11501.650390625</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>11645.900390625</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>11645.900390625</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>20058</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>11795.9501953125</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>11403.099609375</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>11745.7001953125</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>11745.7001953125</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>32033</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>11740</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>11840.150390625</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>11582</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>11765.2001953125</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>11765.2001953125</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>40074</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>11827.099609375</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>11827.099609375</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>11505.2001953125</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>11623.4501953125</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>11623.4501953125</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>28254</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1100"/>
+  <dimension ref="A1:R1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61845,7 +61845,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61899,7 +61901,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61953,7 +61957,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -62007,7 +62013,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62061,7 +62069,279 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>11517.7998046875</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>11597.5498046875</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>11210</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>11436.900390625</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>11436.900390625</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>44298</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>11333</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>11998.4501953125</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>11333</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>11903</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>11903</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>38556</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>11903.0498046875</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>12250</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>11803.0498046875</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>12165.7001953125</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>12165.7001953125</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>41252</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>12196.2998046875</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>12350</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>12308.349609375</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>12308.349609375</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>25686</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>12700.7001953125</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>12900</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>12410</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>12822.849609375</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>12822.849609375</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>39065</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1105"/>
+  <dimension ref="A1:R1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62125,7 +62125,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62179,7 +62181,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62233,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62287,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62341,7 +62349,279 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>12830</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>13250</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>12654.900390625</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>13188.349609375</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>13188.349609375</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>44840</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>13188.349609375</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>13533.150390625</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>13139.400390625</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>13139.400390625</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>44036</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>13139.400390625</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>13275</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>12815.150390625</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>12927.2001953125</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>12927.2001953125</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>18329</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>12818.0498046875</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>12990.9501953125</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>12535.0498046875</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>12694.849609375</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>12694.849609375</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>24302</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>12694.7998046875</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>13100.25</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>12456.0498046875</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>12803.599609375</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>12803.599609375</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>149011</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1110"/>
+  <dimension ref="A1:R1115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62117,7 +62117,7 @@
         <v>37</v>
       </c>
       <c r="O1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1101" t="n">
         <v>0</v>
@@ -62405,7 +62405,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62459,7 +62461,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62513,7 +62517,9 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62567,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62621,7 +62629,279 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>13040</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>12656</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>12722.849609375</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>12722.849609375</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>20940</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>12766.0498046875</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>12900</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>12619</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>12799.150390625</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>12799.150390625</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>19232</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>12800</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>13555.5498046875</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>12787.599609375</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>13346.7001953125</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>13346.7001953125</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>68954</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>13188</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>13638</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>13081.2998046875</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>13516</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>13516</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>50749</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>13587.4501953125</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>14231.2001953125</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>13328.25</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>13647.7001953125</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>13647.7001953125</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>74485</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1115"/>
+  <dimension ref="A1:R1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62685,7 +62685,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62739,7 +62741,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62793,7 +62797,9 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
@@ -62847,7 +62853,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62901,7 +62909,225 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>13690</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>14839.849609375</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>13435.150390625</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>14545.2998046875</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>14545.2998046875</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>75341</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>14600</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>14849.9501953125</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>14155.5</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>14278.900390625</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>14278.900390625</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>41973</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>14238.9501953125</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>14238.9501953125</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>13935</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>14056.4501953125</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>14056.4501953125</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>24665</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>14056.400390625</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>14671.2001953125</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>13752.0498046875</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>14015.5</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>14015.5</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>44533</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1119"/>
+  <dimension ref="A1:R1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62965,7 +62965,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -63019,7 +63021,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -63073,7 +63077,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63127,7 +63133,279 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>14015.5</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>14525</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>13500.099609375</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>13643.25</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>13643.25</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>40492</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>13639.9501953125</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>14187.9501953125</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>13324.5</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>14055.25</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>14055.25</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>30986</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>14150</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>15167.9501953125</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>14095</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>14480.7998046875</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>14480.7998046875</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>114257</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>15100</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>16380</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>14760.400390625</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>15960.150390625</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>15960.150390625</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>269291</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>15748.150390625</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>16549.94921875</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>15557.4501953125</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>15899.2001953125</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>15899.2001953125</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>121346</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1124"/>
+  <dimension ref="A1:R1129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63189,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63243,7 +63245,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63297,7 +63301,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63351,7 +63357,9 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63405,7 +63413,279 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>15899.2001953125</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>16400</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>15702.150390625</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>15921.849609375</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>15921.849609375</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>58430</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>15967.5</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>16280</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>15802.349609375</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>16118.4501953125</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>16118.4501953125</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>60009</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>16180.5</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>15953.7001953125</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>16072.400390625</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>16072.400390625</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>36362</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>16060</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>15561.2998046875</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>15802.650390625</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>15802.650390625</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>26410</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>15751</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>15751</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>15220.25</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>15531.5498046875</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>15531.5498046875</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>70622</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1129"/>
+  <dimension ref="A1:R1134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63405,7 +63405,7 @@
         <v>41</v>
       </c>
       <c r="O1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1124" t="n">
         <v>0</v>
@@ -63469,7 +63469,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63523,7 +63525,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63577,7 +63581,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63631,7 +63637,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63685,7 +63693,279 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>15699</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>15799.849609375</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>14800</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>14931.4501953125</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>14931.4501953125</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>20398</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>14901</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>14901</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>13762.5</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>13880.5498046875</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>13880.5498046875</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>50951</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>13880.599609375</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>14312.2998046875</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>13596.599609375</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>13744.099609375</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>13744.099609375</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>47371</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>13814.9501953125</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>14019.9501953125</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>13523.2001953125</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>13767.25</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>13767.25</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>25938</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>13800</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>13979.9501953125</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>13024.7001953125</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>13309.4501953125</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>13309.4501953125</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>53113</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1134"/>
+  <dimension ref="A1:R1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63749,7 +63749,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63803,7 +63805,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63857,7 +63861,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63911,7 +63917,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63965,7 +63973,279 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>13300</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>13906</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>13230.0498046875</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>13609.7001953125</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>13609.7001953125</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>28939</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>13494</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>14450</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>13241.349609375</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>14253.5498046875</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>14253.5498046875</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>66680</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>14500</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>14660.599609375</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>13125</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>13695.849609375</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>13695.849609375</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>133601</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>13602.400390625</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>13945</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>13418.7998046875</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>13819</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>13819</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>36829</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>13800</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>14040.4501953125</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>13800</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>13982.5498046875</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>13982.5498046875</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>1859</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1139"/>
+  <dimension ref="A1:R1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63965,7 +63965,7 @@
         <v>43</v>
       </c>
       <c r="O1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1134" t="n">
         <v>0</v>
@@ -64029,7 +64029,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -64083,7 +64085,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64137,7 +64141,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64191,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64245,7 +64253,279 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>13921.0498046875</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>14289.900390625</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>13590.2001953125</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>13969.400390625</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>13969.400390625</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>38388</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>13969.400390625</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>14300</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>13761.4501953125</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>13986.2998046875</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>13986.2998046875</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>34623</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>14099.9501953125</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>14945</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>14817.25</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>14817.25</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>63998</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>14895.150390625</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>14940</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>14200</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>14353.849609375</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>14353.849609375</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>57291</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>14423</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>14429.150390625</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>13851</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>14039.349609375</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>14039.349609375</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>23157</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1144"/>
+  <dimension ref="A1:R1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64309,7 +64309,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64363,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64417,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64471,7 +64477,9 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64525,7 +64533,225 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>13900</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>13900</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>12726.0498046875</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>13491.7998046875</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>13491.7998046875</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>102600</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>13485.7998046875</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>13490.099609375</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>12952.7998046875</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>12952.7998046875</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>111696</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>12850</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>12896.2998046875</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>11709.0498046875</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>12121.25</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>12121.25</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>154186</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>12121.25</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>12295.099609375</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>11716.0498046875</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>11782.349609375</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>11782.349609375</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>126619</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1148"/>
+  <dimension ref="A1:R1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64413,7 +64413,7 @@
         <v>45</v>
       </c>
       <c r="O1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1142" t="n">
         <v>0</v>
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>1</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64643,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64697,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64751,7 +64757,225 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>11782.2998046875</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>11790.400390625</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>11220.900390625</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>11392.150390625</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>11392.150390625</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>113311</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>11419.9501953125</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>12134.9501953125</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>11300.2998046875</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>11729.400390625</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>11729.400390625</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>106159</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>11688.849609375</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>11688.849609375</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>10925.4501953125</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>11411.7001953125</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>11411.7001953125</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>124056</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>11437.099609375</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>11620.0498046875</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>11180.0498046875</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>11513.0498046875</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>11513.0498046875</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>84780</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1152"/>
+  <dimension ref="A1:R1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64813,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64867,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64921,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64975,7 +64981,279 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>12332.5498046875</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>11660.2001953125</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>11660.2001953125</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>311083</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>12500</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>12825</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>12245</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>12337.2001953125</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>12337.2001953125</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>179427</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>12500</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>12598.2001953125</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>12081.150390625</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>12138.599609375</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>12138.599609375</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>87518</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>12236.349609375</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>12400</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>12039.7998046875</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>12223.099609375</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>12223.099609375</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>42958</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>12300.0498046875</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>11800</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>11978.5498046875</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>11978.5498046875</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>48496</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1157"/>
+  <dimension ref="A1:R1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64917,7 +64917,7 @@
         <v>47</v>
       </c>
       <c r="O1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1151" t="n">
         <v>0</v>
@@ -65037,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65091,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65145,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65199,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65253,7 +65261,279 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>11980</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>12350</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>11562.099609375</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>12264.2998046875</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>12264.2998046875</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>70697</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>12226.25</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>12436</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>12130.150390625</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>12220.9501953125</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>12220.9501953125</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>49848</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>12205.099609375</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>12295.4501953125</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>11950.0498046875</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>12105.5498046875</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>12105.5498046875</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>61502</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>12134.849609375</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>12134.849609375</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>11761</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>11899.25</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>11899.25</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>75869</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>11953.5</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>12130.099609375</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>11720</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>12074.9501953125</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>12074.9501953125</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>55408</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1162"/>
+  <dimension ref="A1:R1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65317,7 +65317,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65371,7 +65373,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65425,7 +65429,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65479,7 +65485,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65533,7 +65541,529 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>12110.0498046875</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>12550</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>11950</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>12452.7998046875</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>47481</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>12596.7998046875</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>12596.7998046875</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>12111.900390625</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>12501.349609375</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>21990</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>12580</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>12699</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>12441</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>12645.2998046875</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>29711</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>12735</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>13238.9501953125</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>12656.5498046875</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>13130.7001953125</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>59799</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>13125</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>13129.9501953125</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>12680</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>12990</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>45942</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>13024.7001953125</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>13282</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>12850</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>13171.9501953125</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>32489</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>13234.5</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>13350</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>13149</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>13199</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>33071</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>13199.0498046875</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>13199.0498046875</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>12666</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>12841.349609375</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>48855</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>12400</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>13249</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>12301.099609375</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>13120.650390625</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>55373</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>13120.650390625</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>13441.150390625</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>13092.0498046875</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>13316.4501953125</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>72185</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1172"/>
+  <dimension ref="A1:R1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65595,7 +65595,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65647,7 +65649,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65699,7 +65703,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65751,7 +65757,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65803,7 +65811,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65855,7 +65865,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65907,7 +65919,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65959,7 +65973,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66011,7 +66027,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66063,7 +66081,217 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>13410.25</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>13635</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>13106.099609375</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>13589.599609375</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>50680</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>13589.599609375</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>14125</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>13333</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>14030.9501953125</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>44301</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>14005</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>14540</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>14001.0498046875</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>14332.2998046875</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>51228</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>14300</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>14780.900390625</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>14137.9501953125</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>14687.4501953125</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>44138</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:R1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66135,7 +66135,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66187,7 +66189,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66239,7 +66243,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66291,7 +66297,269 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>14704</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>15088.900390625</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>13973.5498046875</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>14310.900390625</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>141944</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>14400</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>14733.9501953125</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>14110</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>14412.2001953125</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>50499</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>14412.2001953125</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>15685.7001953125</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>14297.7001953125</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>15428.5</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>115862</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>15325</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>15473.400390625</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>14901</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>15169.25</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>64973</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>15294.349609375</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>15412.900390625</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>15100</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>15131.400390625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>45259</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1181"/>
+  <dimension ref="A1:R1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66351,7 +66351,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66403,7 +66405,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66455,7 +66459,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66507,7 +66513,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66559,7 +66567,269 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>15131.400390625</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>15223.900390625</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>14634.900390625</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>14766.650390625</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>49734</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>14782.4501953125</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>14950</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>14490.25</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>14712.0498046875</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>35982</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>14708</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>14766.849609375</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>14202.650390625</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>14305.099609375</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>37249</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>14305.099609375</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>14450</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>13700</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>13833.650390625</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>31893</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>13866</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>13923.5</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>13214.75</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>13436.349609375</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>42055</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1186"/>
+  <dimension ref="A1:R1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
         <v>1</v>
@@ -66451,7 +66451,7 @@
         <v>1</v>
       </c>
       <c r="O1179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1179" t="n">
         <v>0</v>
@@ -66621,7 +66621,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66673,7 +66675,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66725,7 +66729,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66777,7 +66783,9 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66829,7 +66837,269 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>13236.349609375</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>13518.75</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>12550</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>12724.0498046875</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>42954</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>12799.900390625</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>13640</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>12741.5498046875</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>13428.099609375</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>99738</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>13270</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>13399</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>12515</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>12672</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>78121</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>12983.25</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>13366</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>12810</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>13055.75</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>53888</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>13066.5</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>13317</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>12825.0498046875</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>12917.099609375</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>36376</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1191"/>
+  <dimension ref="A1:R1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66891,7 +66891,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66943,7 +66945,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -66995,7 +66999,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67047,7 +67053,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67099,7 +67107,269 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>13278</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>13278</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>12558.5</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>12906.5</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>48256</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>12900</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>13184.9501953125</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>12650</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>12873.5498046875</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>46451</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>12999.900390625</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>12999.900390625</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>11905.5</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>12110.2998046875</v>
+      </c>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="n">
+        <v>58478</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>11700.0498046875</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>12279.7998046875</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>11700.0498046875</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>11821.150390625</v>
+      </c>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="n">
+        <v>51133</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>11869.7001953125</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>11954.150390625</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>11266</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>11410.900390625</v>
+      </c>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="n">
+        <v>66267</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1196"/>
+  <dimension ref="A1:R1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67161,7 +67161,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67213,7 +67215,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67265,7 +67269,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67317,7 +67323,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67369,7 +67377,269 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>11410.900390625</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>11552</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>10834.9501953125</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>10931.75</v>
+      </c>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="n">
+        <v>73552</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>10920</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>10920</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>8801</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>9621.75</v>
+      </c>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="n">
+        <v>511391</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>9360.0498046875</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>10231.25</v>
+      </c>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="n">
+        <v>266916</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>11444</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>12277.5</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>11200</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>12277.5</v>
+      </c>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="n">
+        <v>583770</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>12550</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>14674</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>12280</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>12863.5498046875</v>
+      </c>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="n">
+        <v>649784</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1201"/>
+  <dimension ref="A1:R1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67431,7 +67431,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67483,7 +67485,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67535,7 +67539,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67587,7 +67593,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67639,7 +67647,321 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>13000</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>13199.900390625</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>11801</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>12206.2998046875</v>
+      </c>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="n">
+        <v>162824</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>12088</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>11025.4501953125</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>11748.099609375</v>
+      </c>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="n">
+        <v>271683</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>12445</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>11473.650390625</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>12029.349609375</v>
+      </c>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="n">
+        <v>207500</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>12255</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>12367.099609375</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>11855.150390625</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>11925.349609375</v>
+      </c>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="n">
+        <v>78475</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>11950</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>12625.5</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>11950</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>12283.9501953125</v>
+      </c>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="n">
+        <v>153233</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>12386.2998046875</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>12596</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>12200.2001953125</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>12274</v>
+      </c>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="n">
+        <v>78093</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1207"/>
+  <dimension ref="A1:R1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67477,7 +67477,7 @@
         <v>5</v>
       </c>
       <c r="O1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1198" t="n">
         <v>0</v>
@@ -67639,7 +67639,7 @@
         <v>5</v>
       </c>
       <c r="O1201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1201" t="n">
         <v>0</v>
@@ -67701,7 +67701,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67753,7 +67755,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67805,7 +67809,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67857,7 +67863,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67909,7 +67917,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -67961,7 +67971,269 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>12800</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>12800.0498046875</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>12020</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>12226.900390625</v>
+      </c>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="n">
+        <v>84663</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>12226.9501953125</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>12276.099609375</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>11596.2001953125</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>11738.7998046875</v>
+      </c>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="n">
+        <v>77556</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>11729.099609375</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>11790</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>11011.099609375</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>11716.75</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>107699</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>11750</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>12005</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>11627.400390625</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>11755.2001953125</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>66552</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>11787.7998046875</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>11867.25</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>11110.0498046875</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>11289.349609375</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>72346</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1212"/>
+  <dimension ref="A1:R1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68025,7 +68025,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68077,7 +68079,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68129,7 +68133,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68181,7 +68187,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68233,7 +68241,269 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>11100</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>11282</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>10701</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>10865.349609375</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>95424</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>10974.5498046875</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>11238</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>10494.099609375</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>154616</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>10495</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>11137.2998046875</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>10381.7998046875</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>10602.9501953125</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>141491</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>11380.9501953125</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>10407.5498046875</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>11297.650390625</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>142450</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>11275</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>11623</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>11050</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>11567.099609375</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>128517</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1217"/>
+  <dimension ref="A1:R1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68295,7 +68295,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68339,7 +68341,7 @@
         <v>8</v>
       </c>
       <c r="O1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1214" t="n">
         <v>0</v>
@@ -68347,7 +68349,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68399,7 +68403,9 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68451,7 +68457,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68503,7 +68511,477 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>11249.9501953125</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>12018.2001953125</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>11160</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>11607.650390625</v>
+      </c>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="n">
+        <v>186590</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>11989.9501953125</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>11513</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>11797.900390625</v>
+      </c>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="n">
+        <v>103341</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>11760.099609375</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>11827.2998046875</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>11415</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>11565.25</v>
+      </c>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="n">
+        <v>73467</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>11310</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>11584.099609375</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>11123.599609375</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>11284.349609375</v>
+      </c>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="n">
+        <v>76321</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>11297.599609375</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>11820</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>11085.9501953125</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>11754.75</v>
+      </c>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="n">
+        <v>100843</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>12342.849609375</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>11475</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>12187.349609375</v>
+      </c>
+      <c r="F1223" t="inlineStr"/>
+      <c r="G1223" t="n">
+        <v>133116</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>12205.5</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>13300</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>12201.0498046875</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>13191.099609375</v>
+      </c>
+      <c r="F1224" t="inlineStr"/>
+      <c r="G1224" t="n">
+        <v>203286</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>13447.400390625</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>13955</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>13272.4501953125</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>13613</v>
+      </c>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="n">
+        <v>277267</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>13543.7001953125</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>13639.2001953125</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>13049.349609375</v>
+      </c>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="n">
+        <v>111520</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1226"/>
+  <dimension ref="A1:R1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" t="n">
         <v>1</v>
@@ -68565,7 +68565,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68617,7 +68619,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68669,7 +68673,9 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
@@ -68721,7 +68727,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68773,7 +68781,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68825,7 +68835,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -68877,7 +68889,9 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -68921,7 +68935,7 @@
         <v>10</v>
       </c>
       <c r="O1225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1225" t="n">
         <v>0</v>
@@ -68929,7 +68943,9 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -68981,7 +68997,477 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>12800</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>13091.099609375</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>12600.7998046875</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>12714.7998046875</v>
+      </c>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="n">
+        <v>81163</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>12585.150390625</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>12842.599609375</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>12121.150390625</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>12169.599609375</v>
+      </c>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="n">
+        <v>116095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>12169.9501953125</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>12335.400390625</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>11940.7001953125</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>12170.5498046875</v>
+      </c>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="n">
+        <v>106276</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>12429.9501953125</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>11927.2001953125</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>12033.5</v>
+      </c>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="n">
+        <v>95240</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>12033.4501953125</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>12900</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>11960.5498046875</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>12663.349609375</v>
+      </c>
+      <c r="F1231" t="inlineStr"/>
+      <c r="G1231" t="n">
+        <v>215600</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>12663.349609375</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>12663.349609375</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>12663.349609375</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>12663.349609375</v>
+      </c>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>12050.75</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>11751</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>11800.25</v>
+      </c>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="n">
+        <v>143477</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>12128.849609375</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>11811.099609375</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>11887.150390625</v>
+      </c>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="n">
+        <v>140469</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>11961.5</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>12351</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>11851.2001953125</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>12059.7001953125</v>
+      </c>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="n">
+        <v>186687</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1235"/>
+  <dimension ref="A1:R1244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69051,7 +69051,9 @@
       <c r="Q1227" t="n">
         <v>0</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69103,7 +69105,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69155,7 +69159,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69207,7 +69213,9 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69259,7 +69267,9 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -69311,7 +69321,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69363,7 +69375,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69415,7 +69429,9 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69467,7 +69483,477 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>12250</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>12535</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>12150.2001953125</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>12255.150390625</v>
+      </c>
+      <c r="F1236" t="inlineStr"/>
+      <c r="G1236" t="n">
+        <v>131842</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>12360.0498046875</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>12498</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>11974.0498046875</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>12141.599609375</v>
+      </c>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="n">
+        <v>100468</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>12120.5</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>12172.849609375</v>
+      </c>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="n">
+        <v>65913</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>12237.849609375</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>13275</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>11950</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>12947.9501953125</v>
+      </c>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="n">
+        <v>233784</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>12986.599609375</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>12986.599609375</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>12550</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>12653.650390625</v>
+      </c>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="n">
+        <v>117075</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>12653.5</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>12236</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>12280.5498046875</v>
+      </c>
+      <c r="F1241" t="inlineStr"/>
+      <c r="G1241" t="n">
+        <v>72223</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>12337.599609375</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>12484</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>12235.0498046875</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>12433.7001953125</v>
+      </c>
+      <c r="F1242" t="inlineStr"/>
+      <c r="G1242" t="n">
+        <v>58221</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>12397.7001953125</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>12499</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>12253.150390625</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>12406</v>
+      </c>
+      <c r="F1243" t="inlineStr"/>
+      <c r="G1243" t="n">
+        <v>59503</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>12458.75</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>12490.5498046875</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>11990.099609375</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>12120.0498046875</v>
+      </c>
+      <c r="F1244" t="inlineStr"/>
+      <c r="G1244" t="n">
+        <v>83988</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1244"/>
+  <dimension ref="A1:R1248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69537,7 +69537,9 @@
       <c r="Q1236" t="n">
         <v>2</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69589,7 +69591,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69641,7 +69645,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69693,7 +69699,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69745,7 +69753,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69797,7 +69807,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -69849,7 +69861,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -69901,7 +69915,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -69953,7 +69969,217 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>11762.9501953125</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>11520.849609375</v>
+      </c>
+      <c r="F1245" t="inlineStr"/>
+      <c r="G1245" t="n">
+        <v>86082</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>11775</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>11839.650390625</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>11406.5498046875</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>11666.099609375</v>
+      </c>
+      <c r="F1246" t="inlineStr"/>
+      <c r="G1246" t="n">
+        <v>68040</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>11700.5</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>11709.9501953125</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>11298</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>11353.4501953125</v>
+      </c>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="n">
+        <v>47287</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>12075</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>11519.0498046875</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>11979.2998046875</v>
+      </c>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="n">
+        <v>90523</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1248"/>
+  <dimension ref="A1:R1251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69691,7 +69691,7 @@
         <v>13</v>
       </c>
       <c r="O1239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1239" t="n">
         <v>0</v>
@@ -70023,7 +70023,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70075,7 +70077,9 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70127,7 +70131,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70179,7 +70185,165 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>12844</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>12063</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>12574</v>
+      </c>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="n">
+        <v>100045</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>12579</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>12893</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>12579</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>12695</v>
+      </c>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="n">
+        <v>78815</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>12720</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>13350</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>12603</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>13206</v>
+      </c>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="n">
+        <v>119534</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1251"/>
+  <dimension ref="A1:R1260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="Q149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149" t="n">
         <v>1</v>
@@ -70015,7 +70015,7 @@
         <v>15</v>
       </c>
       <c r="O1245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1245" t="n">
         <v>0</v>
@@ -70239,7 +70239,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70291,7 +70293,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70343,7 +70347,477 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>13206</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>13517</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>13153</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>13453</v>
+      </c>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="n">
+        <v>87580</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>13390</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>13857</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>13353</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>13802</v>
+      </c>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="n">
+        <v>88090</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>13900</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>14094</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>13697</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>13910</v>
+      </c>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="n">
+        <v>73491</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>13674</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>14050</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>13674</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>13924</v>
+      </c>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="n">
+        <v>55683</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>13924</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>13979</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>13360</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>13499</v>
+      </c>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="n">
+        <v>88270</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>13414</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>14000</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>13389</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>13961</v>
+      </c>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="n">
+        <v>56019</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>14050</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>14440</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>13962</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>14391</v>
+      </c>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="n">
+        <v>66435</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>14415</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>14900</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>14299</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>14529</v>
+      </c>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="n">
+        <v>95157</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>14530</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>14975</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>14510</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>14702</v>
+      </c>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="n">
+        <v>95735</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POWERINDIA.NS.xlsx
+++ b/stock_historical_data/1d/POWERINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1260"/>
+  <dimension ref="A1:R1270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R155" t="n">
         <v>0</v>
@@ -70401,7 +70401,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70453,7 +70455,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70505,7 +70509,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70557,7 +70563,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70609,7 +70617,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70661,7 +70671,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70713,7 +70725,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70765,7 +70779,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -70817,7 +70833,529 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>14974</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>14435</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>14574</v>
+      </c>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="n">
+        <v>81434</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>14650</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>14868</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>14304</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>14413</v>
+      </c>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="n">
+        <v>81913</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>14328</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>14900</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>14152</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>14680</v>
+      </c>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="n">
+        <v>91027</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>14680</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>15194</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>14495</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>14667</v>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="n">
+        <v>81165</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>14499</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>15189</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>14240</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>15080</v>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="n">
+        <v>81656</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>15596</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>16151</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>15301</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>15864</v>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="n">
+        <v>97231</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>15849</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>16150</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>15734</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>15975</v>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>100316</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>16115</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>16979</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>15939</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>16735</v>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="n">
+        <v>174498</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>16880</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>16950</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>15427</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>15570</v>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="n">
+        <v>232253</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>15900</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>16110</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>15516</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>15803</v>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="n">
+        <v>123151</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
